--- a/Assets/Resources/heros.xlsx
+++ b/Assets/Resources/heros.xlsx
@@ -844,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" s="0">
         <f>ROUND( J3/I3*100,2)</f>
@@ -880,10 +880,10 @@
         <v>15</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J4" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K4" s="0">
         <f>ROUND( J4/I4*100,2)</f>
@@ -919,10 +919,10 @@
         <v>19</v>
       </c>
       <c r="I5" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K5" s="0">
         <f>ROUND( J5/I5*100,2)</f>
@@ -958,10 +958,10 @@
         <v>22</v>
       </c>
       <c r="I6" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K6" s="0">
         <f>ROUND( J6/I6*100,2)</f>
@@ -1036,10 +1036,10 @@
         <v>15</v>
       </c>
       <c r="I8" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K8" s="0">
         <f>ROUND( J8/I8*100,2)</f>
@@ -1075,7 +1075,7 @@
         <v>22</v>
       </c>
       <c r="I9" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
@@ -1270,10 +1270,10 @@
         <v>13</v>
       </c>
       <c r="I14" s="0">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J14" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K14" s="0">
         <f>ROUND( J14/I14*100,2)</f>
@@ -1309,7 +1309,7 @@
         <v>22</v>
       </c>
       <c r="I15" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J15" s="0">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>22</v>
       </c>
       <c r="I18" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J18" s="0">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>30</v>
       </c>
       <c r="I21" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J21" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K21" s="0">
         <f>ROUND( J21/I21*100,2)</f>
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="I22" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J22" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K22" s="0">
         <f>ROUND( J22/I22*100,2)</f>
@@ -1660,7 +1660,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J24" s="0">
         <v>0</v>
@@ -1699,10 +1699,10 @@
         <v>32</v>
       </c>
       <c r="I25" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J25" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K25" s="0">
         <f>ROUND( J25/I25*100,2)</f>
@@ -1738,10 +1738,10 @@
         <v>30</v>
       </c>
       <c r="I26" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J26" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K26" s="0">
         <f>ROUND( J26/I26*100,2)</f>
@@ -1777,10 +1777,10 @@
         <v>32</v>
       </c>
       <c r="I27" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J27" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K27" s="0">
         <f>ROUND( J27/I27*100,2)</f>
@@ -1859,7 +1859,7 @@
         <v>19</v>
       </c>
       <c r="I29" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>32</v>
       </c>
       <c r="I31" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J31" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K31" s="0">
         <f>ROUND( J31/I31*100,2)</f>
@@ -2054,7 +2054,7 @@
         <v>32</v>
       </c>
       <c r="I34" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J34" s="0">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>32</v>
       </c>
       <c r="I35" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="J41" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K41" s="0">
         <f>ROUND( J41/I41*100,2)</f>
@@ -2366,10 +2366,10 @@
         <v>22</v>
       </c>
       <c r="I42" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J42" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K42" s="0">
         <f>ROUND( J42/I42*100,2)</f>
@@ -2405,10 +2405,10 @@
         <v>32</v>
       </c>
       <c r="I43" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J43" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K43" s="0">
         <f>ROUND( J43/I43*100,2)</f>
@@ -2564,7 +2564,7 @@
         <v>6</v>
       </c>
       <c r="J47" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K47" s="0">
         <f>ROUND( J47/I47*100,2)</f>
@@ -2639,10 +2639,10 @@
         <v>19</v>
       </c>
       <c r="I49" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K49" s="0">
         <f>ROUND( J49/I49*100,2)</f>
@@ -2678,7 +2678,7 @@
         <v>15</v>
       </c>
       <c r="I50" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J50" s="0">
         <v>0</v>
@@ -2717,10 +2717,10 @@
         <v>13</v>
       </c>
       <c r="I51" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J51" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K51" s="0">
         <f>ROUND( J51/I51*100,2)</f>
@@ -2756,7 +2756,7 @@
         <v>30</v>
       </c>
       <c r="I52" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J52" s="0">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>22</v>
       </c>
       <c r="I54" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J54" s="0">
         <v>0</v>

--- a/Assets/Resources/heros.xlsx
+++ b/Assets/Resources/heros.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -300,16 +300,60 @@
   </si>
   <si>
     <t>WIN_BATTLE comlunm</t>
+  </si>
+  <si>
+    <t>dame all</t>
+  </si>
+  <si>
+    <t>reduces some things in n round</t>
+  </si>
+  <si>
+    <t>passive skill</t>
+  </si>
+  <si>
+    <t>hp lower than … + buff</t>
+  </si>
+  <si>
+    <t>game all back line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">each attack +hp </t>
+  </si>
+  <si>
+    <t>dame random n enemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +hp if enemy doge + bufff</t>
+  </si>
+  <si>
+    <t>buff normal attack</t>
+  </si>
+  <si>
+    <t>1 dame weaknest enemy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -335,8 +379,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,10 +777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,7 +788,7 @@
     <col min="2" max="2" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -807,20 +853,20 @@
         <v>11</v>
       </c>
       <c r="I2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K33" si="0">ROUND(J2/I2*100,2)</f>
-        <v>41.46</v>
+        <v>32.43</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -846,20 +892,20 @@
         <v>14</v>
       </c>
       <c r="I3">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J3">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>68.180000000000007</v>
+        <v>43.9</v>
       </c>
       <c r="M3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -885,20 +931,20 @@
         <v>14</v>
       </c>
       <c r="I4">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J4">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>65.91</v>
+        <v>44.74</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -924,20 +970,20 @@
         <v>14</v>
       </c>
       <c r="I5">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J5">
         <v>21</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>47.73</v>
+        <v>41.18</v>
       </c>
       <c r="M5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -963,20 +1009,20 @@
         <v>14</v>
       </c>
       <c r="I6">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>71.05</v>
+        <v>60.47</v>
       </c>
       <c r="M6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1002,20 +1048,35 @@
         <v>22</v>
       </c>
       <c r="I7">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>54.35</v>
+        <v>55.56</v>
       </c>
       <c r="M7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1041,20 +1102,32 @@
         <v>22</v>
       </c>
       <c r="I8">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>55.1</v>
+        <v>38.71</v>
       </c>
       <c r="M8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>93</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1080,20 +1153,32 @@
         <v>22</v>
       </c>
       <c r="I9">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <v>20</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>37.74</v>
+        <v>48.78</v>
       </c>
       <c r="M9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1119,20 +1204,32 @@
         <v>22</v>
       </c>
       <c r="I10">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J10">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>65.38</v>
+        <v>48.89</v>
       </c>
       <c r="M10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>95</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1158,20 +1255,26 @@
         <v>27</v>
       </c>
       <c r="I11">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J11">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>40.630000000000003</v>
+        <v>52.27</v>
       </c>
       <c r="M11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1197,20 +1300,20 @@
         <v>27</v>
       </c>
       <c r="I12">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J12">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>86.96</v>
+        <v>45.45</v>
       </c>
       <c r="M12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1236,20 +1339,20 @@
         <v>27</v>
       </c>
       <c r="I13">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J13">
-        <v>14</v>
-      </c>
-      <c r="K13">
+        <v>26</v>
+      </c>
+      <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>33.33</v>
+        <v>55.32</v>
       </c>
       <c r="M13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1275,20 +1378,20 @@
         <v>27</v>
       </c>
       <c r="I14">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="J14">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>45.71</v>
+        <v>52.08</v>
       </c>
       <c r="M14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1314,20 +1417,20 @@
         <v>27</v>
       </c>
       <c r="I15">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J15">
-        <v>26</v>
-      </c>
-      <c r="K15">
+        <v>18</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>68.42</v>
+        <v>40</v>
       </c>
       <c r="M15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1353,20 +1456,20 @@
         <v>27</v>
       </c>
       <c r="I16">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J16">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>55.56</v>
+        <v>34.69</v>
       </c>
       <c r="M16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1392,24 +1495,20 @@
         <v>27</v>
       </c>
       <c r="I17">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="J17">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>52.78</v>
       </c>
       <c r="M17" t="s">
         <v>34</v>
       </c>
-      <c r="S17">
-        <f>POWER(6,6)/720</f>
-        <v>64.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1435,20 +1534,20 @@
         <v>27</v>
       </c>
       <c r="I18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J18">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>34.04</v>
+        <v>45.83</v>
       </c>
       <c r="M18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1474,20 +1573,20 @@
         <v>27</v>
       </c>
       <c r="I19">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J19">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>29.63</v>
+        <v>59.52</v>
       </c>
       <c r="M19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1513,20 +1612,20 @@
         <v>27</v>
       </c>
       <c r="I20">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J20">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>42.86</v>
       </c>
       <c r="M20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1552,20 +1651,20 @@
         <v>27</v>
       </c>
       <c r="I21">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J21">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>54.9</v>
+        <v>62.96</v>
       </c>
       <c r="M21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1591,20 +1690,20 @@
         <v>40</v>
       </c>
       <c r="I22">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J22">
         <v>22</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>44.9</v>
+        <v>45.83</v>
       </c>
       <c r="M22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1630,20 +1729,20 @@
         <v>40</v>
       </c>
       <c r="I23">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J23">
-        <v>20</v>
-      </c>
-      <c r="K23">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2">
         <f t="shared" si="0"/>
-        <v>46.51</v>
+        <v>40.43</v>
       </c>
       <c r="M23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1669,20 +1768,20 @@
         <v>40</v>
       </c>
       <c r="I24">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J24">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>65.31</v>
+        <v>54.76</v>
       </c>
       <c r="M24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1708,20 +1807,20 @@
         <v>40</v>
       </c>
       <c r="I25">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J25">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>36.590000000000003</v>
+        <v>55.32</v>
       </c>
       <c r="M25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1747,20 +1846,20 @@
         <v>40</v>
       </c>
       <c r="I26">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J26">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>50.94</v>
+        <v>52.08</v>
       </c>
       <c r="M26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1786,20 +1885,20 @@
         <v>40</v>
       </c>
       <c r="I27">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J27">
-        <v>30</v>
-      </c>
-      <c r="K27">
+        <v>36</v>
+      </c>
+      <c r="K27" s="2">
         <f t="shared" si="0"/>
-        <v>71.430000000000007</v>
+        <v>56.25</v>
       </c>
       <c r="M27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1825,20 +1924,20 @@
         <v>40</v>
       </c>
       <c r="I28">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J28">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>41.46</v>
+        <v>53.06</v>
       </c>
       <c r="M28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1864,20 +1963,20 @@
         <v>40</v>
       </c>
       <c r="I29">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J29">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>41.03</v>
       </c>
       <c r="M29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1903,20 +2002,20 @@
         <v>40</v>
       </c>
       <c r="I30">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J30">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>44.44</v>
+        <v>47.06</v>
       </c>
       <c r="M30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1942,20 +2041,20 @@
         <v>40</v>
       </c>
       <c r="I31">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J31">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>35.42</v>
+        <v>62.5</v>
       </c>
       <c r="M31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1981,14 +2080,14 @@
         <v>40</v>
       </c>
       <c r="I32">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J32">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
-        <v>62.22</v>
+        <v>50</v>
       </c>
       <c r="M32" t="s">
         <v>50</v>
@@ -2023,11 +2122,11 @@
         <v>41</v>
       </c>
       <c r="J33">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
-        <v>46.34</v>
+        <v>56.1</v>
       </c>
       <c r="M33" t="s">
         <v>51</v>
@@ -2059,14 +2158,14 @@
         <v>52</v>
       </c>
       <c r="I34">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J34">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K34">
         <f t="shared" ref="K34:K65" si="1">ROUND(J34/I34*100,2)</f>
-        <v>26.67</v>
+        <v>43.59</v>
       </c>
       <c r="M34" t="s">
         <v>53</v>
@@ -2098,14 +2197,14 @@
         <v>52</v>
       </c>
       <c r="I35">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J35">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>43.59</v>
+        <v>63.27</v>
       </c>
       <c r="M35" t="s">
         <v>54</v>
@@ -2137,14 +2236,14 @@
         <v>52</v>
       </c>
       <c r="I36">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J36">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K36">
         <f t="shared" si="1"/>
-        <v>46.51</v>
+        <v>56.1</v>
       </c>
       <c r="M36" t="s">
         <v>55</v>
@@ -2176,14 +2275,14 @@
         <v>52</v>
       </c>
       <c r="I37">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J37">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K37">
         <f t="shared" si="1"/>
-        <v>36.96</v>
+        <v>52.08</v>
       </c>
       <c r="M37" t="s">
         <v>56</v>
@@ -2215,14 +2314,14 @@
         <v>52</v>
       </c>
       <c r="I38">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J38">
-        <v>21</v>
-      </c>
-      <c r="K38">
+        <v>22</v>
+      </c>
+      <c r="K38" s="1">
         <f t="shared" si="1"/>
-        <v>55.26</v>
+        <v>44.9</v>
       </c>
       <c r="M38" t="s">
         <v>57</v>
@@ -2254,14 +2353,14 @@
         <v>52</v>
       </c>
       <c r="I39">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J39">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K39">
         <f t="shared" si="1"/>
-        <v>51.06</v>
+        <v>35.14</v>
       </c>
       <c r="M39" t="s">
         <v>58</v>
@@ -2293,14 +2392,14 @@
         <v>52</v>
       </c>
       <c r="I40">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J40">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K40">
         <f t="shared" si="1"/>
-        <v>48.72</v>
+        <v>45.28</v>
       </c>
       <c r="M40" t="s">
         <v>59</v>
@@ -2332,14 +2431,14 @@
         <v>52</v>
       </c>
       <c r="I41">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="J41">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K41">
         <f t="shared" si="1"/>
-        <v>49.06</v>
+        <v>48.57</v>
       </c>
       <c r="M41" t="s">
         <v>60</v>
@@ -2371,14 +2470,14 @@
         <v>52</v>
       </c>
       <c r="I42">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K42">
         <f t="shared" si="1"/>
-        <v>47.83</v>
+        <v>63.83</v>
       </c>
       <c r="M42" t="s">
         <v>61</v>
@@ -2410,14 +2509,14 @@
         <v>52</v>
       </c>
       <c r="I43">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J43">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K43">
         <f t="shared" si="1"/>
-        <v>63.41</v>
+        <v>50</v>
       </c>
       <c r="M43" t="s">
         <v>62</v>
@@ -2449,14 +2548,14 @@
         <v>52</v>
       </c>
       <c r="I44">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J44">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K44">
         <f t="shared" si="1"/>
-        <v>67.31</v>
+        <v>38.78</v>
       </c>
       <c r="M44" t="s">
         <v>63</v>
@@ -2488,14 +2587,14 @@
         <v>65</v>
       </c>
       <c r="I45">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J45">
-        <v>17</v>
-      </c>
-      <c r="K45">
+        <v>24</v>
+      </c>
+      <c r="K45" s="1">
         <f t="shared" si="1"/>
-        <v>51.52</v>
+        <v>58.54</v>
       </c>
       <c r="M45" t="s">
         <v>64</v>
@@ -2527,14 +2626,14 @@
         <v>65</v>
       </c>
       <c r="I46">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J46">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K46">
         <f t="shared" si="1"/>
-        <v>47.92</v>
+        <v>48.39</v>
       </c>
       <c r="M46" t="s">
         <v>66</v>
@@ -2566,14 +2665,14 @@
         <v>65</v>
       </c>
       <c r="I47">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="J47">
-        <v>18</v>
-      </c>
-      <c r="K47">
+        <v>35</v>
+      </c>
+      <c r="K47" s="2">
         <f t="shared" si="1"/>
-        <v>41.86</v>
+        <v>59.32</v>
       </c>
       <c r="M47" t="s">
         <v>67</v>
@@ -2605,14 +2704,14 @@
         <v>65</v>
       </c>
       <c r="I48">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J48">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="K48">
         <f t="shared" si="1"/>
-        <v>58.93</v>
+        <v>45.24</v>
       </c>
       <c r="M48" t="s">
         <v>68</v>
@@ -2644,14 +2743,14 @@
         <v>65</v>
       </c>
       <c r="I49">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J49">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K49">
         <f t="shared" si="1"/>
-        <v>46.34</v>
+        <v>55.1</v>
       </c>
       <c r="M49" t="s">
         <v>69</v>
@@ -2686,11 +2785,11 @@
         <v>35</v>
       </c>
       <c r="J50">
-        <v>19</v>
-      </c>
-      <c r="K50">
+        <v>20</v>
+      </c>
+      <c r="K50" s="2">
         <f t="shared" si="1"/>
-        <v>54.29</v>
+        <v>57.14</v>
       </c>
       <c r="M50" t="s">
         <v>70</v>
@@ -2761,14 +2860,14 @@
         <v>65</v>
       </c>
       <c r="I52">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J52">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="K52">
         <f t="shared" si="1"/>
-        <v>23.08</v>
+        <v>47.83</v>
       </c>
       <c r="M52" t="s">
         <v>72</v>
@@ -2800,14 +2899,14 @@
         <v>65</v>
       </c>
       <c r="I53">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J53">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K53">
         <f t="shared" si="1"/>
-        <v>56.36</v>
+        <v>48</v>
       </c>
       <c r="M53" t="s">
         <v>73</v>
@@ -2839,14 +2938,14 @@
         <v>65</v>
       </c>
       <c r="I54">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J54">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K54">
         <f t="shared" si="1"/>
-        <v>45.45</v>
+        <v>43.33</v>
       </c>
       <c r="M54" t="s">
         <v>74</v>
@@ -2878,14 +2977,14 @@
         <v>65</v>
       </c>
       <c r="I55">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J55">
-        <v>20</v>
-      </c>
-      <c r="K55">
+        <v>22</v>
+      </c>
+      <c r="K55" s="1">
         <f t="shared" si="1"/>
-        <v>47.62</v>
+        <v>55</v>
       </c>
       <c r="M55" t="s">
         <v>75</v>
